--- a/data/long_dif/P23_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_5-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 30,62</t>
+          <t>15,14; 35,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 27,68</t>
+          <t>10,47; 27,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,15; 25,29</t>
+          <t>11,6; 33,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 19,17</t>
+          <t>10,86; 37,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 25,07</t>
+          <t>10,82; 25,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,26</t>
+          <t>8,44; 20,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 26,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 31,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 27,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 21,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 26,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,3; 30,66</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>68,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>64,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52,34%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,47; 73,98</t>
+          <t>49,28; 71,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,15; 81,43</t>
+          <t>63,47; 81,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,06; 79,32</t>
+          <t>46,09; 73,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,27; 76,2</t>
+          <t>34,41; 66,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,84; 74,43</t>
+          <t>62,44; 79,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,7; 76,25</t>
+          <t>60,66; 75,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57,02; 75,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40,84; 68,56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58,62; 73,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 76,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55,65; 71,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42,25; 63,09</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>17,8%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 24,27</t>
+          <t>7,51; 23,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 19,87</t>
+          <t>4,21; 15,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,07</t>
+          <t>8,83; 31,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,07</t>
+          <t>14,51; 43,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 18,64</t>
+          <t>7,39; 18,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 18,97</t>
+          <t>11,79; 24,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 25,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 41,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 19,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 18,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 23,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 36,88</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 36,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 24,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 25,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 30,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>65,69%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,49%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,26; 76,31</t>
+          <t>12,04; 39,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,3; 77,22</t>
+          <t>8,05; 23,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66,48; 81,29</t>
+          <t>9,2; 40,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,18; 79,85</t>
+          <t>5,3; 25,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,12; 76,22</t>
+          <t>11,35; 24,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,21; 76,23</t>
+          <t>7,9; 16,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 22,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 27,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 31,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 18,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 30,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 23,74</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>62,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>73,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54,87%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>68,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69,95%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61,45%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 27,5</t>
+          <t>46,44; 74,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 35,27</t>
+          <t>50,74; 76,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,33</t>
+          <t>46,44; 77,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,56; 20,23</t>
+          <t>49,28; 84,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 19,61</t>
+          <t>66,71; 81,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 27,69</t>
+          <t>67,02; 79,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56,64; 74,33</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44,47; 65,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56,96; 75,07</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60,9; 75,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55,13; 73,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50,62; 72,16</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,85%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 33,95</t>
+          <t>8,87; 35,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 21,71</t>
+          <t>11,19; 37,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,53; 24,13</t>
+          <t>9,9; 28,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,7</t>
+          <t>7,56; 37,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,02</t>
+          <t>4,37; 14,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,2; 17,96</t>
+          <t>9,69; 20,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 26,75</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 37,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 21,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 27,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 24,42</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 32,88</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,26; 72,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>55,48; 71,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,18; 73,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,57; 72,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,3; 70,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,01; 70,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,23; 23,69</t>
+          <t>14,81; 34,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,22; 31,03</t>
+          <t>10,25; 21,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,28; 20,09</t>
+          <t>15,62; 33,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,5; 24,62</t>
+          <t>12,09; 28,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,67; 19,35</t>
+          <t>13,2; 22,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,02; 25,57</t>
+          <t>9,18; 16,77</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 25,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 23,66</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 27,12</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 17,12</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 26,54</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 24,06</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>67,76%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>68,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>65,91%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64,09%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>63,85%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,17; 26,94</t>
+          <t>53,35; 72,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,46; 24,21</t>
+          <t>56,86; 72,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,24; 23,31</t>
+          <t>48,81; 66,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,11; 22,07</t>
+          <t>50,87; 71,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,73; 22,53</t>
+          <t>60,38; 72,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,98</t>
+          <t>62,05; 72,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,48; 74,4</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>56,61; 73,93</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>58,89; 70,69</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>61,78; 70,97</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>58,24; 69,48</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56,54; 69,95</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>64,37%</t>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>57,46; 74,06</t>
+          <t>9,45; 19,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>63,23; 76,99</t>
+          <t>13,6; 29,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>53,27; 66,44</t>
+          <t>12,67; 25,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52,12; 63,85</t>
+          <t>10,25; 27,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,76; 68,38</t>
+          <t>10,81; 20,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>59,69; 68,36</t>
+          <t>15,19; 24,48</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 18,35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 26,98</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>11,01; 18,51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 24,32</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>12,25; 19,5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 24,66</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,03; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,75; 19,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>16,7; 27,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,07; 29,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,27; 23,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,48; 23,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>11,3; 23,36</t>
+          <t>11,51; 26,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,95</t>
+          <t>10,47; 24,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,21; 23,16</t>
+          <t>13,14; 24,89</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,53; 18,04</t>
+          <t>11,83; 26,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,62; 21,57</t>
+          <t>13,38; 23,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,02; 18,01</t>
+          <t>13,07; 22,03</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 27,97</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 34,84</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 22,85</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 21,07</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 25,04</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 28,15</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>58,0%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>58,29%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>58,17%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>64,42%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>56,39%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>58,01; 75,23</t>
+          <t>59,5; 74,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>66,59; 79,07</t>
+          <t>63,27; 76,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>59,32; 74,4</t>
+          <t>42,78; 61,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>57,89; 71,03</t>
+          <t>45,65; 66,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>61,37; 72,98</t>
+          <t>55,37; 67,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>63,9; 73,45</t>
+          <t>51,97; 63,46</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,47; 64,68</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>49,49; 67,57</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>59,28; 69,39</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>59,82; 68,68</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>50,0; 61,53</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>50,12; 64,01</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,34%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>9,53; 26,48</t>
+          <t>11,28; 21,24</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,09</t>
+          <t>9,34; 18,52</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,13; 23,6</t>
+          <t>19,02; 40,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17,27; 29,39</t>
+          <t>16,93; 34,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>12,19; 22,42</t>
+          <t>15,75; 26,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,91</t>
+          <t>20,06; 30,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>15,25; 25,6</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 23,37</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 21,86</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 22,96</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 31,75</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,65; 26,55</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,96; 35,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,73; 24,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,7; 26,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,52; 27,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,08; 16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>50,86; 72,66</t>
+          <t>10,43; 23,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>60,4; 77,02</t>
+          <t>10,44; 21,42</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>58,84; 77,5</t>
+          <t>5,56; 15,25</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>57,9; 76,81</t>
+          <t>15,36; 35,03</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>58,42; 72,95</t>
+          <t>11,6; 23,65</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>61,45; 74,81</t>
+          <t>8,86; 17,64</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 28,02</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 25,94</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 21,18</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 18,1</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 20,23</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 27,39</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>67,51%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>72,68%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>65,66%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>65,1%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>58,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>56,7%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>66,6%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>62,8%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>59,85%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>9,68; 22,85</t>
+          <t>57,9; 74,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,19; 22,46</t>
+          <t>65,23; 78,37</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,11</t>
+          <t>56,52; 75,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,4; 34,04</t>
+          <t>51,57; 73,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>10,0; 18,62</t>
+          <t>57,99; 73,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>14,15; 26,16</t>
+          <t>58,38; 71,45</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 67,54</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 65,44</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>60,3; 72,01</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>63,44; 73,17</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>56,13; 69,03</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>52,25; 66,92</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,99</t>
+          <t>10,61; 27,92</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,62</t>
+          <t>8,13; 17,67</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,12</t>
+          <t>15,73; 34,09</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,91</t>
+          <t>6,59; 23,82</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>16,39; 21,12</t>
+          <t>12,19; 25,1</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,95</t>
+          <t>16,89; 28,82</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 29,44</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 33,59</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 23,32</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 21,92</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 28,26</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 25,52</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>60,83; 69,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>64,96; 72,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>64,91; 71,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>63,57; 69,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>63,7; 69,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>65,55; 70,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>12,85; 18,64</t>
+          <t>14,98; 33,8</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,6</t>
+          <t>11,02; 24,82</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>12,55; 16,84</t>
+          <t>5,85; 23,6</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,31</t>
+          <t>9,98; 29,36</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>13,19; 16,81</t>
+          <t>12,61; 27,75</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,98</t>
+          <t>5,87; 14,59</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 30,23</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 34,55</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 26,52</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 17,27</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 24,9</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 28,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>68,29%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>70,91%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>68,2%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>68,7%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>70,24%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>63,05%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>65,52%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>69,39%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>68,75%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>65,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>50,33; 71,47</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>59,36; 76,84</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>60,35; 80,68</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>55,58; 78,97</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>60,1; 76,38</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>62,37; 77,39</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>56,85; 76,13</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>49,05; 75,86</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>59,05; 72,19</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>63,56; 74,28</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>60,16; 75,29</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>55,69; 74,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 24,52</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 22,0</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 25,69</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 25,53</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 19,88</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 29,36</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 20,96</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 27,56</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 19,23</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 24,34</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 21,02</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 23,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>20,21%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 24,88</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 18,69</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 22,54</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 23,61</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 20,67</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 15,15</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 22,49</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 24,03</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 21,43</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 15,96</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 21,26</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 22,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>64,23%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>62,39%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>61,38%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>67,69%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>67,01%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>64,4%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>59,36%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>66,0%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>68,16%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>60,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>59,73; 68,04</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 72,57</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>57,93; 67,55</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>56,46; 66,41</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>64,67; 70,83</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>64,08; 69,71</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>60,8; 67,97</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 63,83</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>63,33; 68,45</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>65,73; 70,26</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>60,42; 66,18</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>56,7; 64,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 18,98</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>12,55; 19,34</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 23,82</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 23,99</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 16,82</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 22,35</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 19,38</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 24,71</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 17,06</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 19,89</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 20,71</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 23,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_5-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
